--- a/src/assets/files/ImportQuestions.xlsx
+++ b/src/assets/files/ImportQuestions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dan\utehy-database-course-portal-client\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBAAFC2-EEE8-4B55-A684-EC77D469E6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A042F22F-FD91-46A4-9005-2A8CD52FE4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87A91055-2CEF-4298-B338-E59DFCE235EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>Title</t>
   </si>
@@ -69,77 +69,263 @@
     <t>correct</t>
   </si>
   <si>
-    <t>&lt;p&gt;Cho tôi biết 1+1 bằng mấy?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Chỉ có 1 đáp án đúng&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>&lt;p&gt;3=7&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Đúng&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>sai</t>
-  </si>
-  <si>
-    <t>sai rồi</t>
-  </si>
-  <si>
-    <t>đúng</t>
-  </si>
-  <si>
-    <t>đúng rồi</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;4=4&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Tốt quá rồi&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>đúng chắc</t>
-  </si>
-  <si>
-    <t>đúng luôn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sai bét </t>
-  </si>
-  <si>
-    <t>&lt;p&gt;sao lại vậy &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Quá ok&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>?ok</t>
-  </si>
-  <si>
-    <t>ok à</t>
-  </si>
-  <si>
-    <t>ừ</t>
-  </si>
-  <si>
-    <t>ok rồi</t>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Đâu là thành phần không phải là của mô hình ER?</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Trong SQL, lệnh nào dùng để lấy dữ liệu từ một cơ sở dữ liệu?</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Đâu không phải là kiểu dữ liệu cơ bản trong SQL?</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>Khóa chính (Primary Key) trong cơ sở dữ liệu dùng để làm gì?</t>
+  </si>
+  <si>
+    <t>Liên kết các bảng</t>
+  </si>
+  <si>
+    <t>Định dạng dữ liệu</t>
+  </si>
+  <si>
+    <t>Xác định mỗi hàng một cách duy nhất</t>
+  </si>
+  <si>
+    <t>Phân loại dữ liệu</t>
+  </si>
+  <si>
+    <t>Mệnh đề nào sau đây không đúng về SQL?</t>
+  </si>
+  <si>
+    <t>SQL dùng để tạo cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>SQL có thể chạy trên các hệ thống DBMS khác nhau</t>
+  </si>
+  <si>
+    <t>SQL dùng để kết nối với cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>SQL là một ngôn ngữ lập trình cấp thấp</t>
+  </si>
+  <si>
+    <t>Câu lệnh SQL nào được sử dụng để cập nhật dữ liệu trong cơ sở dữ liệu?</t>
+  </si>
+  <si>
+    <t>INSERT INTO</t>
+  </si>
+  <si>
+    <t>MODIFY</t>
+  </si>
+  <si>
+    <t>ALTER</t>
+  </si>
+  <si>
+    <t>ACID trong cơ sở dữ liệu đề cập đến cái gì?</t>
+  </si>
+  <si>
+    <t>Atomicity, Consistency, Isolation, Durability</t>
+  </si>
+  <si>
+    <t>Association, Consistency, Integrity, Durability</t>
+  </si>
+  <si>
+    <t>Atomicity, Consolidation, Isolation, Distribution</t>
+  </si>
+  <si>
+    <t>Association, Concurrency, Integrity, Distribution</t>
+  </si>
+  <si>
+    <t>Đâu là cấu trúc dữ liệu thường được sử dụng để lưu trữ cơ sở dữ liệu quan hệ?</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Đâu không phải là một loại JOIN trong SQL?</t>
+  </si>
+  <si>
+    <t>INNER JOIN</t>
+  </si>
+  <si>
+    <t>OUTER JOIN</t>
+  </si>
+  <si>
+    <t>DIRECT JOIN</t>
+  </si>
+  <si>
+    <t>LEFT JOIN</t>
+  </si>
+  <si>
+    <t>Lệnh SQL nào cho phép loại bỏ dữ liệu trùng lặp từ kết quả truy vấn?</t>
+  </si>
+  <si>
+    <t>REMOVE DUPLICATES</t>
+  </si>
+  <si>
+    <t>DELETE DUPLICATES</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>Trong mô hình cơ sở dữ liệu NoSQL, "document" thường được lưu trữ trong định dạng nào?</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu phân tán có đặc điểm gì?</t>
+  </si>
+  <si>
+    <t>Dữ liệu được lưu trữ trên một máy chủ duy nhất</t>
+  </si>
+  <si>
+    <t>Dữ liệu được tự động sao lưu</t>
+  </si>
+  <si>
+    <t>Dữ liệu được phân bổ trên nhiều vị trí khác nhau</t>
+  </si>
+  <si>
+    <t>Dữ liệu không thể được phục hồi sau khi bị l</t>
+  </si>
+  <si>
+    <t>Đâu là loại khóa ngoại trong cơ sở dữ liệu?</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>Unique Key</t>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>Secondary Key</t>
+  </si>
+  <si>
+    <t>Câu lệnh SQL nào dùng để loại bỏ cấu trúc và dữ liệu của bảng?</t>
+  </si>
+  <si>
+    <t>DROP TABLE</t>
+  </si>
+  <si>
+    <t>DELETE TABLE</t>
+  </si>
+  <si>
+    <t>REMOVE TABLE</t>
+  </si>
+  <si>
+    <t>ERASE TABLE</t>
+  </si>
+  <si>
+    <t>Những thuật ngữ nào sau đây thường được dùng trong cơ sở dữ liệu không quan hệ?</t>
+  </si>
+  <si>
+    <t>Tables, Rows, Columns</t>
+  </si>
+  <si>
+    <t>Documents, Collections, Fields</t>
+  </si>
+  <si>
+    <t>Đúng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -168,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -179,9 +365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B9192B-3C30-4666-83E5-3F55BF113E05}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +694,7 @@
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,62 +738,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
         <v>4</v>
       </c>
-      <c r="K2" s="3">
-        <v>44</v>
-      </c>
-      <c r="L2" s="3">
-        <v>32</v>
-      </c>
-      <c r="M2" s="3">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -620,35 +804,34 @@
       <c r="H3" s="3">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="K3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="N3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -660,66 +843,669 @@
         <v>1</v>
       </c>
       <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="N5">
         <v>4</v>
       </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6">
+        <v>2</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
+        <v>2</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
+        <v>3</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <v>4</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6">
+        <v>2</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6">
+        <v>3</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
+        <v>3</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
